--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1296021.901546688</v>
+        <v>1293321.25192338</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>111.2254363169657</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>72.36698404190648</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>194.8702723308013</v>
+        <v>26.95228090977687</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -820,25 +820,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>87.91134267784294</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.5102079953232</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>383.0198440937179</v>
+        <v>383.0198440937145</v>
       </c>
       <c r="G5" t="n">
-        <v>383.0198440937179</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.427789379774163</v>
+        <v>99.38935721520083</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3593638980478</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536247</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37.01975101178776</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339764</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259319</v>
+        <v>36.31604239259342</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>132.3311025858011</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477691</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714492</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.1722518073683</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>258.2471978122843</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.739389635060738</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>36.12469079938472</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371884</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.60777203238041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114111</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>229.5234454340418</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860861</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458127</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035295</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009494</v>
       </c>
       <c r="D13" t="n">
-        <v>139.9725525495072</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>79.00824149146347</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
@@ -1582,7 +1582,7 @@
         <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850358</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>22.79601828574695</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>120.8326485140799</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428533</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>57.24347904696321</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8253826161953809</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853806</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179651</v>
+        <v>83.0656089242802</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576169</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833772</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583847</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>145.2857567969027</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936214</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788182587</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833792</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>42.53134576113706</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>686.1106626298169</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C2" t="n">
-        <v>419.733006062639</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899464</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4331,19 +4331,19 @@
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>686.1106626298169</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V2" t="n">
-        <v>686.1106626298169</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="W2" t="n">
-        <v>686.1106626298169</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X2" t="n">
-        <v>686.1106626298169</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="Y2" t="n">
-        <v>686.1106626298169</v>
+        <v>307.3840804899463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4407,52 +4407,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>858.0168610860233</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>650.2565623210693</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C4" t="n">
-        <v>550.339774323312</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D4" t="n">
-        <v>550.339774323312</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>402.4266807409189</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>402.4266807409189</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4519,19 +4519,19 @@
         <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1532.079376374872</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="C5" t="n">
-        <v>1163.11685943446</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="D5" t="n">
-        <v>804.8511608277097</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="E5" t="n">
-        <v>804.8511608277097</v>
+        <v>530.4703790195921</v>
       </c>
       <c r="F5" t="n">
-        <v>417.9624294199137</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
-        <v>31.0736980121178</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="H5" t="n">
-        <v>31.0736980121178</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749744</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281509</v>
+        <v>93.51877468281396</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452999</v>
+        <v>238.4938972452976</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192583</v>
+        <v>455.250118219254</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494272</v>
+        <v>728.1026159494205</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730207</v>
+        <v>1009.983960730198</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145375</v>
+        <v>1262.821260145364</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739605</v>
+        <v>1444.111044739593</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374872</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374872</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S5" t="n">
-        <v>1532.079376374872</v>
+        <v>1387.271938094002</v>
       </c>
       <c r="T5" t="n">
-        <v>1532.079376374872</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="U5" t="n">
-        <v>1532.079376374872</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="V5" t="n">
-        <v>1532.079376374872</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="W5" t="n">
-        <v>1532.079376374872</v>
+        <v>821.8948315401205</v>
       </c>
       <c r="X5" t="n">
-        <v>1532.079376374872</v>
+        <v>821.8948315401205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1532.079376374872</v>
+        <v>821.8948315401205</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.0472692222233</v>
+        <v>517.1904547900576</v>
       </c>
       <c r="C6" t="n">
-        <v>203.0472692222233</v>
+        <v>342.7374255089306</v>
       </c>
       <c r="D6" t="n">
-        <v>203.0472692222233</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>203.0472692222233</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="F6" t="n">
-        <v>203.0472692222233</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112693</v>
+        <v>67.32445863112689</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749744</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835698</v>
+        <v>49.27296248835606</v>
       </c>
       <c r="K6" t="n">
-        <v>159.2717745831328</v>
+        <v>159.2717745831308</v>
       </c>
       <c r="L6" t="n">
-        <v>538.4614202359135</v>
+        <v>448.9177571045004</v>
       </c>
       <c r="M6" t="n">
-        <v>784.4749755318514</v>
+        <v>828.1074027572778</v>
       </c>
       <c r="N6" t="n">
-        <v>1051.40842251604</v>
+        <v>1095.040849741464</v>
       </c>
       <c r="O6" t="n">
-        <v>1273.380581626041</v>
+        <v>1317.013008851464</v>
       </c>
       <c r="P6" t="n">
-        <v>1432.199742479768</v>
+        <v>1475.83216970519</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374872</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374872</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="S6" t="n">
-        <v>1532.079376374872</v>
+        <v>1532.079376374858</v>
       </c>
       <c r="T6" t="n">
-        <v>1336.169699012369</v>
+        <v>1336.169699012355</v>
       </c>
       <c r="U6" t="n">
-        <v>1108.048533152654</v>
+        <v>1336.169699012355</v>
       </c>
       <c r="V6" t="n">
-        <v>872.8964249209116</v>
+        <v>1101.017590780612</v>
       </c>
       <c r="W6" t="n">
-        <v>618.65906819271</v>
+        <v>1101.017590780612</v>
       </c>
       <c r="X6" t="n">
-        <v>410.8075679871772</v>
+        <v>893.1660905750796</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.0472692222233</v>
+        <v>685.4057918101257</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.1109296262644</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>461.1109296262644</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4431492365662</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>179.5300556541731</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>32.64010815626278</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626278</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626278</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626278</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749744</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747011</v>
+        <v>157.2595961747002</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914636</v>
+        <v>374.8134887914619</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437713</v>
+        <v>614.5826883437687</v>
       </c>
       <c r="N7" t="n">
-        <v>854.08532866309</v>
+        <v>854.0853286630866</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109137</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016235</v>
+        <v>1211.35455501623</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767129</v>
+        <v>1233.202138767123</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767129</v>
+        <v>1112.821005058589</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767129</v>
+        <v>909.294108595597</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767129</v>
+        <v>909.294108595597</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.202138767129</v>
+        <v>620.1541806499108</v>
       </c>
       <c r="V7" t="n">
-        <v>978.5176505612422</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>689.1004805242817</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>461.1109296262644</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.1109296262644</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1836.104914868961</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1467.142397928549</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1108.876699321799</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>723.0884467235544</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>312.1025419339468</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.104914868961</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>518.2127024906389</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>349.2765195627319</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
         <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1599.956533408452</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1403.327785568313</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1403.327785568313</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1403.327785568313</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1148.643297362426</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.643297362426</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>920.6537464644088</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.8611673208786</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>808.4162984738909</v>
       </c>
       <c r="F11" t="n">
         <v>808.4162984738909</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907326</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386831</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.515510442031</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301225</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878107</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765425</v>
+        <v>2485.180661765422</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687101</v>
+        <v>3070.226377687098</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856279</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882238</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234587</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.55331123459</v>
+        <v>3826.588132455657</v>
       </c>
       <c r="T11" t="n">
-        <v>3925.55331123459</v>
+        <v>3622.786021971437</v>
       </c>
       <c r="U11" t="n">
-        <v>3672.062594867199</v>
+        <v>3369.295305604046</v>
       </c>
       <c r="V11" t="n">
-        <v>3340.999707523628</v>
+        <v>3038.232418260475</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.46376299036</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.998004729281</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1949.766908076669</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9281460057439</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326288</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
@@ -5115,31 +5115,31 @@
         <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J12" t="n">
-        <v>78.5110662246918</v>
+        <v>196.8120623792126</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831292</v>
+        <v>477.1621322376497</v>
       </c>
       <c r="L12" t="n">
-        <v>782.1489435104388</v>
+        <v>900.4499396649588</v>
       </c>
       <c r="M12" t="n">
-        <v>1295.462717754328</v>
+        <v>1413.763713908848</v>
       </c>
       <c r="N12" t="n">
-        <v>1836.771025105395</v>
+        <v>1518.698809735875</v>
       </c>
       <c r="O12" t="n">
-        <v>2309.742577971144</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441778</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.7378948471145</v>
+        <v>203.8650582458529</v>
       </c>
       <c r="C13" t="n">
-        <v>772.8017119192076</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="D13" t="n">
-        <v>631.4152952025338</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="E13" t="n">
-        <v>483.5022016201407</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="F13" t="n">
-        <v>336.6122541222303</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="G13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.51106622469175</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600397</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457703</v>
+        <v>368.4550473457698</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888909</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.90854877922</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542992</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715847</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082519</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551103</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014273</v>
+        <v>2076.102739014271</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370155</v>
+        <v>1888.302075370153</v>
       </c>
       <c r="T13" t="n">
-        <v>1667.488017920202</v>
+        <v>1667.4880179202</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.488017920202</v>
+        <v>1378.397311360488</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.803529714315</v>
+        <v>1123.712823154601</v>
       </c>
       <c r="W13" t="n">
-        <v>1123.386359677354</v>
+        <v>834.2956531176401</v>
       </c>
       <c r="X13" t="n">
-        <v>1123.386359677354</v>
+        <v>606.3061022196227</v>
       </c>
       <c r="Y13" t="n">
-        <v>1123.386359677354</v>
+        <v>385.5135230760926</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965431</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358681</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708296</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5285,7 +5285,7 @@
         <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874795</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820541</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.19805447697</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206856</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945776</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969964</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>873.8816814720478</v>
+        <v>494.0589900220737</v>
       </c>
       <c r="C16" t="n">
-        <v>704.9454985441409</v>
+        <v>325.1228070941668</v>
       </c>
       <c r="D16" t="n">
-        <v>554.8288591318051</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="E16" t="n">
-        <v>406.9157655494121</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>175.0061676818311</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608056</v>
@@ -5437,16 +5437,16 @@
         <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
         <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368669</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2337.490148271955</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U16" t="n">
-        <v>2048.413934586682</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1793.729446380795</v>
+        <v>1413.906754930822</v>
       </c>
       <c r="W16" t="n">
-        <v>1504.312276343835</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1276.322725445818</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y16" t="n">
-        <v>1055.530146302287</v>
+        <v>675.7074548523134</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400751</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327643</v>
+        <v>344.9174178121682</v>
       </c>
       <c r="D22" t="n">
-        <v>613.6374994204286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>465.7244058380356</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>318.8344583401254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>151.6383590550054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>151.6383590550054</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138449</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703148</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6002,31 +6002,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591808</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795859</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876734</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597665</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474307</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474307</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235169</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.50678425811</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602308</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396421</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359461</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614432</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179131</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6242,28 +6242,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898186995</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597622</v>
+        <v>344.9174178121629</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138396</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703095</v>
       </c>
     </row>
     <row r="29">
@@ -6455,40 +6455,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597626</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597626</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597626</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746426</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111706</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708874</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011271</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6923,52 +6923,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123002</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400734</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142562</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138432</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703131</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273906</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400714</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,34 +7424,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961526</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121646</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121646</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797742</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418266</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752732</v>
+        <v>34.58458098752814</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,10 +8298,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8284110501555</v>
+        <v>96.38026647297403</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907486</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.0731588135704</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>211.0329012241558</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>119.7175232833712</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.62915296996749</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.14636899767841</v>
       </c>
       <c r="D13" t="n">
-        <v>8.642920468705171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034043</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613728827</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597396</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.6859761770149</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856522</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>104.8770068749572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409392703</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>24.02235727160223</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>144.5956654067359</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404991</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4693302300327</v>
+        <v>65.54986409393216</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856253</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>72.11969353038539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.3204386478856</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>72.11969353038555</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864741</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392193907</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>138.4949402405075</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459294</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856153.6986854996</v>
+        <v>856153.6986854991</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536797</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>936757.8051536798</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>936757.8051536797</v>
+        <v>936757.8051536796</v>
       </c>
     </row>
     <row r="16">
@@ -26314,31 +26314,31 @@
         <v>492625.0619185704</v>
       </c>
       <c r="C2" t="n">
+        <v>492625.0619185699</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
-      <c r="D2" t="n">
-        <v>492625.0619185703</v>
-      </c>
       <c r="E2" t="n">
-        <v>442233.6433958224</v>
+        <v>442233.6433958223</v>
       </c>
       <c r="F2" t="n">
         <v>481607.8629828184</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="H2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140038</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
@@ -26347,10 +26347,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
         <v>484287.9598140036</v>
@@ -26366,16 +26366,16 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.909810357</v>
+        <v>132064.909810353</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196329</v>
+        <v>266112.9182196367</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357064</v>
+        <v>325187.1190357055</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051383</v>
+        <v>166521.3471051392</v>
       </c>
       <c r="G3" t="n">
         <v>11167.23623557874</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648437</v>
+        <v>30705.53736648349</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950768</v>
+        <v>65187.38037950863</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456821</v>
+        <v>84929.59434456796</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848928</v>
+        <v>43782.40655848945</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224584</v>
@@ -26418,7 +26418,7 @@
         <v>248543.2666865467</v>
       </c>
       <c r="C4" t="n">
-        <v>212746.1906637131</v>
+        <v>212746.1906637142</v>
       </c>
       <c r="D4" t="n">
         <v>136726.2736921025</v>
@@ -26430,19 +26430,19 @@
         <v>9330.667735531239</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756566</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756552</v>
+        <v>9337.200356756572</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
@@ -26451,13 +26451,13 @@
         <v>9337.200356756595</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.200356756577</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.5095058975</v>
+        <v>72540.50950589721</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.7221621471</v>
+        <v>86093.72216214702</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-499053.9885634356</v>
       </c>
       <c r="C6" t="n">
-        <v>75273.4519386024</v>
+        <v>75273.45193860552</v>
       </c>
       <c r="D6" t="n">
-        <v>-3151.902433009906</v>
+        <v>-3151.902433013922</v>
       </c>
       <c r="E6" t="n">
-        <v>21714.72279851828</v>
+        <v>21504.75855467451</v>
       </c>
       <c r="F6" t="n">
-        <v>205613.7196283105</v>
+        <v>205567.8146327439</v>
       </c>
       <c r="G6" t="n">
-        <v>362660.9933977612</v>
+        <v>362626.2554723255</v>
       </c>
       <c r="H6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079043</v>
       </c>
       <c r="I6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079041</v>
       </c>
       <c r="J6" t="n">
-        <v>304829.0752142259</v>
+        <v>304794.3372887902</v>
       </c>
       <c r="K6" t="n">
-        <v>343122.6922668555</v>
+        <v>343087.9543414206</v>
       </c>
       <c r="L6" t="n">
-        <v>308640.8492538322</v>
+        <v>308606.1113283955</v>
       </c>
       <c r="M6" t="n">
-        <v>288898.6352887718</v>
+        <v>288863.8973633363</v>
       </c>
       <c r="N6" t="n">
-        <v>330045.8230748507</v>
+        <v>330011.0851494147</v>
       </c>
       <c r="O6" t="n">
-        <v>370804.9316561153</v>
+        <v>370770.1937306794</v>
       </c>
       <c r="P6" t="n">
-        <v>373828.2296333399</v>
+        <v>373793.4917079042</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605248</v>
+        <v>716.7570176605216</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494555</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937179</v>
+        <v>383.0198440937145</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086475</v>
+        <v>981.3883278086469</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26808,25 +26808,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910465</v>
+        <v>102.7020038910433</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570143</v>
+        <v>217.3078744570175</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770168</v>
+        <v>278.1053753770159</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218299</v>
+        <v>145.8707812218308</v>
       </c>
       <c r="G3" t="n">
         <v>9.93445162528792</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922118</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063208</v>
+        <v>257.5649880063243</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.803495708608</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173594</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27036,16 +27036,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922118</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063206</v>
+        <v>257.5649880063243</v>
       </c>
       <c r="M4" t="n">
-        <v>340.803495708609</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173594</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922118</v>
+        <v>119.3059640922084</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063208</v>
+        <v>257.5649880063243</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086088</v>
+        <v>340.803495708608</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173594</v>
+        <v>178.7569625173601</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>243.4576053037173</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>10.9027128726762</v>
+        <v>178.8207042937006</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247962</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>78.97232436070364</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815739</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>23.85620164799349</v>
+        <v>23.8562016479969</v>
       </c>
       <c r="G5" t="n">
-        <v>29.40145817454061</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9653033936934</v>
+        <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>98.96156783542617</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980475</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1151380880864</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881101401</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>98.78206237758702</v>
+        <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677171</v>
+        <v>4.436963001677597</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907027</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>16.28437043241121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629793</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478103</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714489</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.491627498362</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.9653915164597</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>153.3005049606697</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.4985490209929</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>65.43288162018891</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29016,7 +29016,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-4.816298607236514e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3.880510727564494e-12</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-2.120263810372943e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.747935129969846e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876479</v>
+        <v>2.881435246876467</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207375</v>
+        <v>29.50949872207362</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552056</v>
+        <v>111.0865323552051</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845828</v>
+        <v>244.5582147845817</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848642</v>
+        <v>366.5293687848626</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214604</v>
+        <v>454.7120927214584</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167931</v>
+        <v>505.9548167930977</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882878</v>
+        <v>514.1416946882855</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521598</v>
+        <v>485.4894229521576</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948966</v>
+        <v>414.3539902948948</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161326</v>
+        <v>311.1625905161312</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266048</v>
+        <v>181.000956826604</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819784</v>
+        <v>65.66070568819754</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320179</v>
+        <v>12.61348279320174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501183</v>
+        <v>0.2305148197501173</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835846</v>
+        <v>1.541703773835839</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309883</v>
+        <v>14.88961276309876</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882189</v>
+        <v>53.08059045882165</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342016</v>
+        <v>145.6571973342009</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812032</v>
+        <v>248.9513501812021</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234366</v>
+        <v>334.7458128234351</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249859</v>
+        <v>390.6325746249842</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118063</v>
+        <v>400.9714565118044</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757593</v>
+        <v>366.8105465757577</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160748</v>
+        <v>294.3978022160735</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584143</v>
+        <v>196.7971343584134</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096596</v>
+        <v>95.72087115096554</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6364714131351</v>
+        <v>28.63647141313497</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943604</v>
+        <v>6.214148105943576</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576215</v>
+        <v>0.101427879857621</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797668</v>
+        <v>1.292512654797662</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265563</v>
+        <v>11.49161251265558</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427896</v>
+        <v>38.86938056427879</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419508</v>
+        <v>91.38064469419467</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574017</v>
+        <v>150.166470257401</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232823</v>
+        <v>192.1613814232815</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970562</v>
+        <v>202.6072336970552</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291741</v>
+        <v>197.7896865291732</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981286</v>
+        <v>182.6907886981277</v>
       </c>
       <c r="P7" t="n">
-        <v>156.323530540256</v>
+        <v>156.3235305402553</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667392</v>
+        <v>108.2303096667387</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572056</v>
+        <v>58.1160690057203</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861025</v>
+        <v>22.52497053861015</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499123</v>
+        <v>5.522554070499099</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169103</v>
+        <v>0.07050069026169072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485645</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508987</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380255</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307176</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726051</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216965</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857418</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.509834189838</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.05348002944</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.750149461513</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895583</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356979</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951042</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475342</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188515</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.60730963196942</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191519</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.7692132059647</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783039</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202551</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.117821625641</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845324</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>237.3367583732593</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431804</v>
       </c>
       <c r="P12" t="n">
-        <v>192.7991225800933</v>
+        <v>497.8817840205466</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071843</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533295</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697582</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780656</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190409</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236083</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737173</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691785</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.541773283691</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619739</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509173</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263706</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973091</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050057</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761893</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916778</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570602</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929608</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826896</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765137</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>357.2897453669896</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982454</v>
@@ -32099,7 +32099,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,25 +32309,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32558,7 +32558,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909875</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>616.9033572954392</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,34 +33977,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>336.3457189021232</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614911</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34784,7 +34784,7 @@
         <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789653</v>
+        <v>63.51231025789542</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398837</v>
+        <v>146.439517739882</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514732</v>
+        <v>218.9456777514711</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658272</v>
+        <v>275.6085835658249</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916969</v>
+        <v>284.7286310916946</v>
       </c>
       <c r="O5" t="n">
-        <v>255.391211530473</v>
+        <v>255.3912115304709</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396271</v>
+        <v>183.1209945396253</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168315</v>
+        <v>88.85690064168173</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753489</v>
+        <v>18.81957066753424</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068442</v>
+        <v>111.1099112068431</v>
       </c>
       <c r="L6" t="n">
-        <v>383.0198440937179</v>
+        <v>292.571699516535</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029676</v>
+        <v>383.0198440937145</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284729</v>
+        <v>269.6297444284711</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313149</v>
+        <v>224.2143021313132</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017446</v>
+        <v>160.4233948017433</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.8885190859632</v>
+        <v>56.8153602723919</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315188</v>
+        <v>127.8969784315182</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835985</v>
+        <v>219.7514066835976</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588967</v>
+        <v>242.1911106588958</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084027</v>
+        <v>241.9218589084018</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121682</v>
+        <v>207.2759166121674</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051495</v>
+        <v>153.6020898051488</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504485</v>
+        <v>22.06826641504436</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>508.7132618620059</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.5478090040313</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276245</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517092</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584691</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932471</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077533</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062435</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151088</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156576</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116372</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458961</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457668</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625141</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>105.995046289926</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.749043298736</v>
       </c>
       <c r="P12" t="n">
-        <v>58.82471516576305</v>
+        <v>363.9073766062164</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936556</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701824</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.690115036091</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.5708868112334</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882112</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765377</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190453</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410828</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998341</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>214.6935009225451</v>
       </c>
       <c r="P15" t="n">
         <v>423.8217357839152</v>
@@ -35747,7 +35747,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496596</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001049</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>71.39556506237764</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998966</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394598</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>485.5616452121058</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060487</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999001</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>205.0040068187898</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394727</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
